--- a/core/static/upload/scrap_data/Dryconstruction.xlsx
+++ b/core/static/upload/scrap_data/Dryconstruction.xlsx
@@ -415,7 +415,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L28"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
